--- a/Publicación/Entidad/05 Migración de retorno 2020/Tabla 2. Migración de retorno por estados, 2020.xlsx
+++ b/Publicación/Entidad/05 Migración de retorno 2020/Tabla 2. Migración de retorno por estados, 2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvill\OneDrive\Escritorio\Prontuario_migracion_interna\Publicación\Entidad\05 Migración de retorno 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B8E600-349D-49BA-8C45-1D34088A2D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE512F05-DA86-412B-A3A2-4C9665988751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="20" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,12 +46,25 @@
     <sheet name="YUC" sheetId="31" r:id="rId31"/>
     <sheet name="ZAC" sheetId="32" r:id="rId32"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="42">
   <si>
     <t>Migrantes de retorno</t>
   </si>
@@ -173,100 +186,10 @@
     <t>Emigrantes</t>
   </si>
   <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Aguscalientes, 2020. </t>
+    <t xml:space="preserve">Fuente: elaboración del CONAPO con base en el INEGI, Censo de Población y Vivienda 2020. </t>
   </si>
   <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Baja California, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Baja California Sur, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Campeche, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Coahuila de Zaragoza, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Colima, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Chiapas, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de la Chihuahua, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de la Ciudad de México, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Durango, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Guanajuato, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Guerrero, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Hidalgo, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Jalisco, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de México, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Michoacán de Ocampo, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Morelos, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Nayarit, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Nuevo Léon, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Oaxaca, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Puebla, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Querétaro, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Quintana Roo , 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de San Luis Potosí, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Sinaloa, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Sonora, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Tabasco, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Tamaulipas, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Tlaxcala, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Veracruz de Ignacio de la Llave, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Yucatán, 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablax. Migración de retorno para el estado de Zacatecas, 2020. </t>
+    <t xml:space="preserve">Tabla 2. Población y porcentajes de migrantes de retorno para el estado X, 2020. </t>
   </si>
 </sst>
 </file>
@@ -276,7 +199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###\ ###\ ##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -294,6 +217,16 @@
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Montserrat Medium"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Montserrat Medium"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Montserrat Medium"/>
     </font>
   </fonts>
@@ -327,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,6 +288,12 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -658,23 +597,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>40</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -690,7 +629,7 @@
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -699,7 +638,7 @@
       <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -707,14 +646,12 @@
       <c r="A5" s="3">
         <v>20390</v>
       </c>
-      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="3">
         <v>20390</v>
       </c>
-      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -1054,64 +991,27 @@
       </c>
       <c r="E25" s="5">
         <v>0.10922020598332501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{66940640-D31C-460E-87D8-7B2492DF209E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BE61586F-ECC4-4898-A601-1105CB67CFD9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{074BA1CD-2C9C-448A-B3CF-B6D30417E070}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2CCCFC31-09B4-4527-A0FA-F42C4E70C381}</x14:id>
+          <x14:id>{406DE3F3-9A49-434E-BA5B-FE25B0EB8CA9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1122,7 +1022,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{66940640-D31C-460E-87D8-7B2492DF209E}">
+          <x14:cfRule type="dataBar" id="{406DE3F3-9A49-434E-BA5B-FE25B0EB8CA9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1130,40 +1030,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BE61586F-ECC4-4898-A601-1105CB67CFD9}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{074BA1CD-2C9C-448A-B3CF-B6D30417E070}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2CCCFC31-09B4-4527-A0FA-F42C4E70C381}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1173,23 +1040,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>49</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1482,64 +1349,27 @@
       </c>
       <c r="E20" s="5">
         <v>4.1746969225986898E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DBB7EC0E-54E3-45B7-9173-0A3B3279D224}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C0ABCE57-E3C5-4B3B-9A73-A9E82821DF60}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{37500C10-D0B6-4581-BCAA-DB3D3AA87E42}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7B122906-0D34-4B50-BE50-62969BFA8D6F}</x14:id>
+          <x14:id>{F3346E90-1A1E-4551-8EB5-3D4475C2E214}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1550,7 +1380,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DBB7EC0E-54E3-45B7-9173-0A3B3279D224}">
+          <x14:cfRule type="dataBar" id="{F3346E90-1A1E-4551-8EB5-3D4475C2E214}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1558,40 +1388,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C0ABCE57-E3C5-4B3B-9A73-A9E82821DF60}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{37500C10-D0B6-4581-BCAA-DB3D3AA87E42}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7B122906-0D34-4B50-BE50-62969BFA8D6F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1601,23 +1398,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>50</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1978,64 +1775,27 @@
       </c>
       <c r="E24" s="5">
         <v>9.1218028975138601E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{92E5FBAE-748F-4698-ABD3-A637A543D5B1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7F1C6347-7250-4B68-A4B5-5363FBE86DD8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A29309F8-C1ED-4CBB-9453-3D284A7363AE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E1866E5D-9DCF-4072-A443-2C50BFA8BB02}</x14:id>
+          <x14:id>{548DF13E-B12B-4D08-9CC7-D276A94480A9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2046,7 +1806,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{92E5FBAE-748F-4698-ABD3-A637A543D5B1}">
+          <x14:cfRule type="dataBar" id="{548DF13E-B12B-4D08-9CC7-D276A94480A9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2054,40 +1814,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7F1C6347-7250-4B68-A4B5-5363FBE86DD8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A29309F8-C1ED-4CBB-9453-3D284A7363AE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E1866E5D-9DCF-4072-A443-2C50BFA8BB02}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2097,23 +1824,23 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>51</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2389,64 +2116,27 @@
       </c>
       <c r="E19" s="5">
         <v>1.5371540479621601E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3C28BFD5-C423-4445-B9B7-EE426DAF848E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A635F162-9375-441A-BE08-DC552BBA27AD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E325A0F6-0F2A-4121-AC4B-AF2E746FE534}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2883DF94-77A3-44C1-A6AE-FDF6DB84CE8F}</x14:id>
+          <x14:id>{C1DDA72B-F540-411E-A303-3AF24100E242}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2457,7 +2147,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3C28BFD5-C423-4445-B9B7-EE426DAF848E}">
+          <x14:cfRule type="dataBar" id="{C1DDA72B-F540-411E-A303-3AF24100E242}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2465,40 +2155,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A635F162-9375-441A-BE08-DC552BBA27AD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E325A0F6-0F2A-4121-AC4B-AF2E746FE534}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2883DF94-77A3-44C1-A6AE-FDF6DB84CE8F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2508,23 +2165,23 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>52</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2783,64 +2440,27 @@
       </c>
       <c r="E18" s="5">
         <v>3.4745554371875799E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6C12263E-CA3A-4BB0-8CF9-3FF17C9450DA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{86E4CF99-CF04-47B6-9588-3572FC79E253}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{829C3074-8F1F-4F6E-BC7F-598366E8A6AD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4836FD1F-6D3D-4E74-8BEA-2DA0BDD802C4}</x14:id>
+          <x14:id>{1DF90BF5-BCCC-4EFC-84E0-96791C76098B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2851,7 +2471,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6C12263E-CA3A-4BB0-8CF9-3FF17C9450DA}">
+          <x14:cfRule type="dataBar" id="{1DF90BF5-BCCC-4EFC-84E0-96791C76098B}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2859,40 +2479,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{86E4CF99-CF04-47B6-9588-3572FC79E253}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{829C3074-8F1F-4F6E-BC7F-598366E8A6AD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4836FD1F-6D3D-4E74-8BEA-2DA0BDD802C4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2902,23 +2489,23 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>53</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3330,64 +2917,27 @@
       </c>
       <c r="E27" s="5">
         <v>2.0344623425409901E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C4B5D05C-A86C-471F-9874-142A1D729114}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6FA7AB86-1868-4773-94D5-7F435A82BD31}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E800CFC2-AAFA-4A83-A128-8D0B73C7BCF2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DDE940F9-D172-4285-B74C-CAD3D5E1C0D8}</x14:id>
+          <x14:id>{9AA6BEC6-B134-4CBF-8DF0-C5B337E7EED9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3398,7 +2948,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C4B5D05C-A86C-471F-9874-142A1D729114}">
+          <x14:cfRule type="dataBar" id="{9AA6BEC6-B134-4CBF-8DF0-C5B337E7EED9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3406,40 +2956,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6FA7AB86-1868-4773-94D5-7F435A82BD31}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E800CFC2-AAFA-4A83-A128-8D0B73C7BCF2}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DDE940F9-D172-4285-B74C-CAD3D5E1C0D8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3449,23 +2966,23 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>54</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3741,64 +3258,27 @@
       </c>
       <c r="E19" s="5">
         <v>1.4049797179178199E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{176F05F3-9E5D-45C6-BB67-AF9071286375}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A1E4BF94-AF6A-481C-902F-A056ED61BB37}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4D1D559C-9D49-40DA-AD20-0594E9DDDEF9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9CD0C7D9-B41B-47DB-947F-37C342403631}</x14:id>
+          <x14:id>{96D877EC-1EFF-4CDB-B175-473EB9824013}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3809,7 +3289,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{176F05F3-9E5D-45C6-BB67-AF9071286375}">
+          <x14:cfRule type="dataBar" id="{96D877EC-1EFF-4CDB-B175-473EB9824013}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3817,40 +3297,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A1E4BF94-AF6A-481C-902F-A056ED61BB37}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4D1D559C-9D49-40DA-AD20-0594E9DDDEF9}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9CD0C7D9-B41B-47DB-947F-37C342403631}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3860,23 +3307,23 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>55</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4169,64 +3616,27 @@
       </c>
       <c r="E20" s="5">
         <v>1.0700953961012E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3C50F8D5-B24B-49F1-8CFE-5486D6137911}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FE5B2226-AADF-417D-A79E-46B8A4A2591D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B725F3F5-0F19-4026-9F92-C8B5A75456DE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5A2CC228-4F0C-4E94-B8FF-5FC2460353D0}</x14:id>
+          <x14:id>{E55B304C-20A6-49E0-84CF-AE2167B2774E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4237,7 +3647,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3C50F8D5-B24B-49F1-8CFE-5486D6137911}">
+          <x14:cfRule type="dataBar" id="{E55B304C-20A6-49E0-84CF-AE2167B2774E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4245,40 +3655,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FE5B2226-AADF-417D-A79E-46B8A4A2591D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B725F3F5-0F19-4026-9F92-C8B5A75456DE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5A2CC228-4F0C-4E94-B8FF-5FC2460353D0}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4288,23 +3665,23 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>56</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4563,64 +3940,27 @@
       </c>
       <c r="E18" s="5">
         <v>1.4109011825472299E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5C235308-1496-4B94-8AF9-4524180E8C89}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{35C82A69-462F-47CA-9182-A2DBC0DDC143}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C0A8F392-C55A-4696-AB7D-E57FEF94F284}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8A2FE2B1-82D6-4CBC-941C-88773FA69F37}</x14:id>
+          <x14:id>{3EFD6BC2-D49A-4D2B-85CF-BAE14A72419B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4631,7 +3971,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5C235308-1496-4B94-8AF9-4524180E8C89}">
+          <x14:cfRule type="dataBar" id="{3EFD6BC2-D49A-4D2B-85CF-BAE14A72419B}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4639,40 +3979,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{35C82A69-462F-47CA-9182-A2DBC0DDC143}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C0A8F392-C55A-4696-AB7D-E57FEF94F284}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8A2FE2B1-82D6-4CBC-941C-88773FA69F37}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4682,23 +3989,23 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>57</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4957,64 +4264,27 @@
       </c>
       <c r="E18" s="5">
         <v>2.5396964646021598E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9BA70D1C-EF47-44D8-BEE1-1481A5E4AE3B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5C6A524C-51EA-4E9A-AB4E-2B04180583C7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4EC839B3-3F01-47C4-A6F8-AA34B98E4F5A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4DA3C400-5369-4E6E-8470-3412883259DC}</x14:id>
+          <x14:id>{632CAB76-499E-43D2-B716-57FA76F9CD12}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5025,7 +4295,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9BA70D1C-EF47-44D8-BEE1-1481A5E4AE3B}">
+          <x14:cfRule type="dataBar" id="{632CAB76-499E-43D2-B716-57FA76F9CD12}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5033,40 +4303,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5C6A524C-51EA-4E9A-AB4E-2B04180583C7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4EC839B3-3F01-47C4-A6F8-AA34B98E4F5A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4DA3C400-5369-4E6E-8470-3412883259DC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5076,23 +4313,23 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>58</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -5436,64 +4673,27 @@
       </c>
       <c r="E23" s="5">
         <v>8.4126568276424191E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CC7C457E-8E8D-45C0-92AE-1A02F8E24317}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E912CCD8-7050-4733-9042-04B5737A5192}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{86E70974-5C2E-46E7-AE49-88D3106DE6B0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{43B9F51F-F926-416F-AB20-DAD80577EC4C}</x14:id>
+          <x14:id>{1259347E-7305-41DA-A4BE-D959F5320520}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5504,7 +4704,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CC7C457E-8E8D-45C0-92AE-1A02F8E24317}">
+          <x14:cfRule type="dataBar" id="{1259347E-7305-41DA-A4BE-D959F5320520}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5512,40 +4712,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E912CCD8-7050-4733-9042-04B5737A5192}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{86E70974-5C2E-46E7-AE49-88D3106DE6B0}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{43B9F51F-F926-416F-AB20-DAD80577EC4C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5555,22 +4722,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5587,7 +4754,7 @@
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -5596,7 +4763,7 @@
       <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5604,14 +4771,12 @@
       <c r="A5" s="3">
         <v>66811</v>
       </c>
-      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="3">
         <v>66811</v>
       </c>
-      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -5957,7 +5122,7 @@
       <c r="A26" s="3">
         <v>8306</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="5">
         <v>0.124320845369774</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -5966,7 +5131,7 @@
       <c r="D26" s="3">
         <v>3094</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="5">
         <v>4.6309739414168299E-2</v>
       </c>
     </row>
@@ -5974,7 +5139,7 @@
       <c r="A27" s="3">
         <v>5093</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="5">
         <v>7.6229962131984297E-2</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -5983,7 +5148,7 @@
       <c r="D27" s="3">
         <v>2686</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="5">
         <v>4.0202960590322002E-2</v>
       </c>
     </row>
@@ -5991,7 +5156,7 @@
       <c r="A28" s="3">
         <v>2188</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="5">
         <v>3.2749098202391802E-2</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -6000,7 +5165,7 @@
       <c r="D28" s="3">
         <v>711</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="5">
         <v>1.06419601562617E-2</v>
       </c>
     </row>
@@ -6008,7 +5173,7 @@
       <c r="A29" s="3">
         <v>547</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="5">
         <v>8.1872745505979592E-3</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -6017,7 +5182,7 @@
       <c r="D29" s="3">
         <v>15</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="5">
         <v>2.24513927347293E-4</v>
       </c>
     </row>
@@ -6025,7 +5190,7 @@
       <c r="A30" s="3">
         <v>407</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="5">
         <v>6.0918112286898899E-3</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -6034,66 +5199,29 @@
       <c r="D30" s="3">
         <v>157</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="5">
         <v>2.3499124395683301E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DC3C5EA0-DDA1-46A3-94F5-BD95EFACEBE4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{88327D77-70E0-475D-91E9-A7078D96F17A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AFAF89A9-FA7B-400E-9807-E1FD1972EF32}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{615918EB-C799-4AEB-9962-DCE5BAF1CB5D}</x14:id>
+          <x14:id>{FEEF7B97-260A-4179-82A2-FCF309CC4EF0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6104,7 +5232,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DC3C5EA0-DDA1-46A3-94F5-BD95EFACEBE4}">
+          <x14:cfRule type="dataBar" id="{FEEF7B97-260A-4179-82A2-FCF309CC4EF0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6112,40 +5240,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{88327D77-70E0-475D-91E9-A7078D96F17A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AFAF89A9-FA7B-400E-9807-E1FD1972EF32}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{615918EB-C799-4AEB-9962-DCE5BAF1CB5D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6155,23 +5250,23 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>59</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -6413,64 +5508,27 @@
       </c>
       <c r="E17" s="5">
         <v>7.15631921420809E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AC7008BC-568D-4B5E-8D60-359A24C729EB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{187D39E3-6ECD-4D8A-A48A-85B28B2C6019}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{62D4125D-1674-4648-8BCA-7641F1E9014E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ABA0EA8-9E6E-4B36-9FBC-42EDA5F99F30}</x14:id>
+          <x14:id>{88B9746B-48B2-4FC7-96E0-2A7F00AB39F0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6481,7 +5539,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AC7008BC-568D-4B5E-8D60-359A24C729EB}">
+          <x14:cfRule type="dataBar" id="{88B9746B-48B2-4FC7-96E0-2A7F00AB39F0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6489,40 +5547,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{187D39E3-6ECD-4D8A-A48A-85B28B2C6019}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{62D4125D-1674-4648-8BCA-7641F1E9014E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9ABA0EA8-9E6E-4B36-9FBC-42EDA5F99F30}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6532,23 +5557,23 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>60</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -6841,64 +5866,27 @@
       </c>
       <c r="E20" s="5">
         <v>7.8926809007209303E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7F635453-F7AE-408F-9F80-6E0D0701A02E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5E1C083D-97FD-4356-91CA-CAD74BB51630}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D00124B7-EE37-494C-8B49-11488A45512F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6C96EAD3-ECF3-4B9F-8A02-FBA39734654C}</x14:id>
+          <x14:id>{286C0E95-3DF3-4623-8A06-ED61A25E69F0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6909,7 +5897,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7F635453-F7AE-408F-9F80-6E0D0701A02E}">
+          <x14:cfRule type="dataBar" id="{286C0E95-3DF3-4623-8A06-ED61A25E69F0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6917,40 +5905,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5E1C083D-97FD-4356-91CA-CAD74BB51630}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D00124B7-EE37-494C-8B49-11488A45512F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6C96EAD3-ECF3-4B9F-8A02-FBA39734654C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6960,23 +5915,23 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>61</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -7337,64 +6292,27 @@
       </c>
       <c r="E24" s="5">
         <v>7.87978206104634E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C4A2790B-4720-450B-86F6-69CE14F34904}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E1711225-ECF7-4A6B-8707-DED1AC004DA8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D792EB6B-DF04-4C59-9B48-53EB39ED58BD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E2137A3A-54EE-420B-9601-B8862C90D43A}</x14:id>
+          <x14:id>{D387A02B-D706-4CB4-9AC5-5CD411E6EBF8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7405,7 +6323,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C4A2790B-4720-450B-86F6-69CE14F34904}">
+          <x14:cfRule type="dataBar" id="{D387A02B-D706-4CB4-9AC5-5CD411E6EBF8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7413,40 +6331,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E1711225-ECF7-4A6B-8707-DED1AC004DA8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D792EB6B-DF04-4C59-9B48-53EB39ED58BD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E2137A3A-54EE-420B-9601-B8862C90D43A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7456,23 +6341,23 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -7833,64 +6718,27 @@
       </c>
       <c r="E24" s="5">
         <v>5.7944216283551002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6E229F71-090A-481B-BC9F-358883D86D77}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AD7A9BB8-8793-47AD-B587-B1C6D2C57AD3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E512C6E8-13BD-42C9-8CD8-F07CE8815FB9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BF3AF8C7-9EF2-42A8-A4EC-467AE2CFB5C6}</x14:id>
+          <x14:id>{5F4337D2-8892-4DB4-AE58-51110037347E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7901,7 +6749,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6E229F71-090A-481B-BC9F-358883D86D77}">
+          <x14:cfRule type="dataBar" id="{5F4337D2-8892-4DB4-AE58-51110037347E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7909,40 +6757,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AD7A9BB8-8793-47AD-B587-B1C6D2C57AD3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E512C6E8-13BD-42C9-8CD8-F07CE8815FB9}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BF3AF8C7-9EF2-42A8-A4EC-467AE2CFB5C6}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7952,23 +6767,23 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>63</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -8312,64 +7127,27 @@
       </c>
       <c r="E23" s="5">
         <v>1.7599770312948598E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1D6B427B-FF2F-42AB-A8E6-06AC894424F6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{558BF62D-E93C-4EDC-B93A-7E449FFE4D75}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{66D27269-DADA-4299-9E7D-878CB9389704}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C8840470-141C-4B09-96BC-EBB6737EEA1C}</x14:id>
+          <x14:id>{C9E1231B-B396-40E2-9D55-1549BFAA627C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8380,7 +7158,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1D6B427B-FF2F-42AB-A8E6-06AC894424F6}">
+          <x14:cfRule type="dataBar" id="{C9E1231B-B396-40E2-9D55-1549BFAA627C}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8388,40 +7166,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{558BF62D-E93C-4EDC-B93A-7E449FFE4D75}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{66D27269-DADA-4299-9E7D-878CB9389704}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C8840470-141C-4B09-96BC-EBB6737EEA1C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8431,23 +7176,23 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>64</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -8723,64 +7468,27 @@
       </c>
       <c r="E19" s="5">
         <v>8.6881307063911596E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DB265AE7-2264-4C02-93D2-F42311E6A330}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1F6BE246-0481-44FD-8685-483AAF3B3AAA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{42DD03A8-E1A1-4320-A2AD-DF37DAC2507E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CA44307E-150A-441A-9EB2-031C098F8E99}</x14:id>
+          <x14:id>{2CBA0117-D6B8-4E9A-ACBF-BE6098C98DF6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8791,7 +7499,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DB265AE7-2264-4C02-93D2-F42311E6A330}">
+          <x14:cfRule type="dataBar" id="{2CBA0117-D6B8-4E9A-ACBF-BE6098C98DF6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8799,40 +7507,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1F6BE246-0481-44FD-8685-483AAF3B3AAA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{42DD03A8-E1A1-4320-A2AD-DF37DAC2507E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CA44307E-150A-441A-9EB2-031C098F8E99}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8842,23 +7517,23 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>65</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -9219,64 +7894,27 @@
       </c>
       <c r="E24" s="5">
         <v>1.28769908505591E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{74F2FDD0-1AD3-4E79-8420-08CD58F5815D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7F655BB5-C7C6-4429-8360-BA52BDB66F3C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BEFD9F67-FCA6-45B2-A5CC-2E6CEC056EDA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FAAA7D87-5B22-43E0-9BB9-DDBF2DE27176}</x14:id>
+          <x14:id>{2CF536D4-317A-4145-A612-63607244976F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9287,7 +7925,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{74F2FDD0-1AD3-4E79-8420-08CD58F5815D}">
+          <x14:cfRule type="dataBar" id="{2CF536D4-317A-4145-A612-63607244976F}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9295,40 +7933,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7F655BB5-C7C6-4429-8360-BA52BDB66F3C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BEFD9F67-FCA6-45B2-A5CC-2E6CEC056EDA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FAAA7D87-5B22-43E0-9BB9-DDBF2DE27176}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9338,23 +7943,23 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>66</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -9630,64 +8235,27 @@
       </c>
       <c r="E19" s="5">
         <v>3.1103104680946899E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CFFB241F-19CB-4643-91E4-DFA07EEFE429}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A83B47B5-FA9C-477A-92FF-E714762F56A6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FB367028-1BBE-476A-BEEE-41FD93A24B69}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{86C6996B-E9C9-4E0E-BA33-854001B08662}</x14:id>
+          <x14:id>{B479EA61-0CD1-4D58-8D72-9FF0B451D0D2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9698,7 +8266,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CFFB241F-19CB-4643-91E4-DFA07EEFE429}">
+          <x14:cfRule type="dataBar" id="{B479EA61-0CD1-4D58-8D72-9FF0B451D0D2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9706,40 +8274,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A83B47B5-FA9C-477A-92FF-E714762F56A6}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FB367028-1BBE-476A-BEEE-41FD93A24B69}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{86C6996B-E9C9-4E0E-BA33-854001B08662}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9749,23 +8284,23 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>67</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -10092,64 +8627,27 @@
       </c>
       <c r="E22" s="5">
         <v>0.111106921322046</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FE5A73A2-E667-4084-9F64-AE7B8856B62F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C7CDA7C6-B527-4375-8791-921A7882243D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{518AEAC2-0E8F-4719-A61D-8421AD0E551B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49F6D38A-0518-45C9-8C80-CC4B2405E1E7}</x14:id>
+          <x14:id>{CD8573E0-8E89-4EAC-AD65-29BE761C8F9E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10160,7 +8658,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FE5A73A2-E667-4084-9F64-AE7B8856B62F}">
+          <x14:cfRule type="dataBar" id="{CD8573E0-8E89-4EAC-AD65-29BE761C8F9E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -10168,40 +8666,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C7CDA7C6-B527-4375-8791-921A7882243D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{518AEAC2-0E8F-4719-A61D-8421AD0E551B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49F6D38A-0518-45C9-8C80-CC4B2405E1E7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10211,23 +8676,23 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>68</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -10486,64 +8951,27 @@
       </c>
       <c r="E18" s="5">
         <v>3.2208588957055202E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{393436AE-EE64-4D32-A15B-6822A88B2139}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{51C0BCAE-AFA2-4314-865B-3EFC72725424}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9643763B-75A4-4DDD-A7BB-FDC9C1278652}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{40F8663E-46A3-4EF7-AD00-CE2C345F9087}</x14:id>
+          <x14:id>{27742C17-5684-4F3A-BEA9-89CB4FD2B1A8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10554,7 +8982,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{393436AE-EE64-4D32-A15B-6822A88B2139}">
+          <x14:cfRule type="dataBar" id="{27742C17-5684-4F3A-BEA9-89CB4FD2B1A8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -10562,40 +8990,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{51C0BCAE-AFA2-4314-865B-3EFC72725424}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9643763B-75A4-4DDD-A7BB-FDC9C1278652}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{40F8663E-46A3-4EF7-AD00-CE2C345F9087}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10605,23 +9000,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>42</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -10637,7 +9032,7 @@
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -10646,7 +9041,7 @@
       <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10654,14 +9049,12 @@
       <c r="A5" s="3">
         <v>20038</v>
       </c>
-      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="3">
         <v>20038</v>
       </c>
-      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -11007,7 +9400,7 @@
       <c r="A26" s="3">
         <v>778</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="5">
         <v>3.8826230162690899E-2</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -11016,7 +9409,7 @@
       <c r="D26" s="3">
         <v>162</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="5">
         <v>8.0846391855474604E-3</v>
       </c>
     </row>
@@ -11024,7 +9417,7 @@
       <c r="A27" s="3">
         <v>764</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="5">
         <v>3.8127557640483097E-2</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -11033,7 +9426,7 @@
       <c r="D27" s="3">
         <v>99</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="5">
         <v>4.9406128356123402E-3</v>
       </c>
     </row>
@@ -11041,7 +9434,7 @@
       <c r="A28" s="3">
         <v>155</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="5">
         <v>7.7353029244435602E-3</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -11050,66 +9443,29 @@
       <c r="D28" s="3">
         <v>23</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="5">
         <v>1.14781914362711E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D19FC208-34B6-43B8-80E0-83DCD21634C1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{553F4132-08BA-4360-B42D-4F25716904D0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3BD6D7C7-7DCA-4151-8E13-E81554558913}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B7D86E7F-B996-42E8-A648-478A8AD02612}</x14:id>
+          <x14:id>{4B2D80C0-9743-4F1A-AFD4-DCF046564927}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11120,7 +9476,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D19FC208-34B6-43B8-80E0-83DCD21634C1}">
+          <x14:cfRule type="dataBar" id="{4B2D80C0-9743-4F1A-AFD4-DCF046564927}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -11128,40 +9484,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{553F4132-08BA-4360-B42D-4F25716904D0}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3BD6D7C7-7DCA-4151-8E13-E81554558913}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B7D86E7F-B996-42E8-A648-478A8AD02612}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -11171,23 +9494,23 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>69</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -11497,64 +9820,27 @@
       </c>
       <c r="E21" s="5">
         <v>0.35900110938866098</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C6B5C855-EE16-4699-9D95-C7C3B87FA51D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{12119C0B-A723-40FC-B2DE-2EB2DC83FC64}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DD797E57-81CE-458B-89EF-3138437E1DDF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A76C6859-6064-4832-A573-13AAF5F19185}</x14:id>
+          <x14:id>{C8F0578C-F2A1-499B-AFFA-E7CC0EDE4482}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11565,7 +9851,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C6B5C855-EE16-4699-9D95-C7C3B87FA51D}">
+          <x14:cfRule type="dataBar" id="{C8F0578C-F2A1-499B-AFFA-E7CC0EDE4482}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -11573,40 +9859,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{12119C0B-A723-40FC-B2DE-2EB2DC83FC64}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DD797E57-81CE-458B-89EF-3138437E1DDF}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A76C6859-6064-4832-A573-13AAF5F19185}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -11616,23 +9869,23 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.1328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>70</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -11891,64 +10144,27 @@
       </c>
       <c r="E18" s="5">
         <v>0.34024609429005898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F42CBAB3-C7B0-4885-9CCF-D1B9D389BF01}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31F6D9ED-779A-4972-8932-7395CF46ED7F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{61903269-6E34-4117-987C-8FF130146751}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8B021FB7-029E-49D4-A885-D57262CAF8F3}</x14:id>
+          <x14:id>{6B8A215D-9651-43AB-817A-2A48834E196D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11959,7 +10175,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F42CBAB3-C7B0-4885-9CCF-D1B9D389BF01}">
+          <x14:cfRule type="dataBar" id="{6B8A215D-9651-43AB-817A-2A48834E196D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -11967,40 +10183,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{31F6D9ED-779A-4972-8932-7395CF46ED7F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{61903269-6E34-4117-987C-8FF130146751}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8B021FB7-029E-49D4-A885-D57262CAF8F3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -12010,23 +10193,23 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>71</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -12438,64 +10621,27 @@
       </c>
       <c r="E27" s="5">
         <v>0.46084263711189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4601081C-BDE4-4D48-8AE7-B48E21AF7253}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{46E97C94-B29C-4F8F-B0C8-8EE7E2E7E4C7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DD5AAEC2-1C8F-4DFA-82FF-4485B7869EBB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BB69D9E9-93E7-4398-BD00-47B4D66FF76B}</x14:id>
+          <x14:id>{0A35431E-E9F0-4255-A5B2-D6E6EB53EB9C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12506,7 +10652,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4601081C-BDE4-4D48-8AE7-B48E21AF7253}">
+          <x14:cfRule type="dataBar" id="{0A35431E-E9F0-4255-A5B2-D6E6EB53EB9C}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -12514,40 +10660,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{46E97C94-B29C-4F8F-B0C8-8EE7E2E7E4C7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DD5AAEC2-1C8F-4DFA-82FF-4485B7869EBB}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BB69D9E9-93E7-4398-BD00-47B4D66FF76B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -12557,23 +10670,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>43</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -12589,7 +10702,7 @@
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -12598,7 +10711,7 @@
       <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -12606,14 +10719,12 @@
       <c r="A5" s="3">
         <v>21302</v>
       </c>
-      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="3">
         <v>21302</v>
       </c>
-      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -12871,81 +10982,24 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="A21" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{576E61A5-183B-4B6D-83CA-66D655DDD85D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CFF96B41-9983-4C8E-AFC5-A593BC8E694A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AEA7C59C-ECC9-439A-A158-CA1FE39ABE54}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5D6F0857-08A3-4411-847D-3BE09EB56160}</x14:id>
+          <x14:id>{5D0CAD65-2A3A-4B91-B521-018AD6F3B528}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -12956,7 +11010,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{576E61A5-183B-4B6D-83CA-66D655DDD85D}">
+          <x14:cfRule type="dataBar" id="{5D0CAD65-2A3A-4B91-B521-018AD6F3B528}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -12964,40 +11018,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CFF96B41-9983-4C8E-AFC5-A593BC8E694A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AEA7C59C-ECC9-439A-A158-CA1FE39ABE54}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5D6F0857-08A3-4411-847D-3BE09EB56160}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -13007,23 +11028,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>44</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -13039,7 +11060,7 @@
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -13048,7 +11069,7 @@
       <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -13056,14 +11077,12 @@
       <c r="A5" s="3">
         <v>34815</v>
       </c>
-      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="3">
         <v>34815</v>
       </c>
-      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -13372,69 +11391,24 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="A24" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A0EF2FC9-CD74-4B59-ACFD-C52F83932B70}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{84FC827B-79BC-4901-8D02-0E4EF24C9F47}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E8BB9ABA-755F-4E56-B75B-D73887C3B0D3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{22CD789D-1BD9-4915-9BA8-140AC51C5D01}</x14:id>
+          <x14:id>{0843F64D-0C04-4EFE-8109-F08EA4193C4C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -13445,7 +11419,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A0EF2FC9-CD74-4B59-ACFD-C52F83932B70}">
+          <x14:cfRule type="dataBar" id="{0843F64D-0C04-4EFE-8109-F08EA4193C4C}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13453,40 +11427,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{84FC827B-79BC-4901-8D02-0E4EF24C9F47}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E8BB9ABA-755F-4E56-B75B-D73887C3B0D3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{22CD789D-1BD9-4915-9BA8-140AC51C5D01}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -13496,23 +11437,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>45</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -13528,7 +11469,7 @@
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -13537,7 +11478,7 @@
       <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -13545,14 +11486,12 @@
       <c r="A5" s="3">
         <v>18633</v>
       </c>
-      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="3">
         <v>18633</v>
       </c>
-      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -13810,81 +11749,24 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="A21" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4615A5DA-2097-473B-9859-61E7D1773C49}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ED3DD033-F516-4634-8E4A-18EC1EC5BB8C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6569439E-4B71-43D7-93BD-85C759D72B1A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B0A603AF-B382-405F-BA99-62A0D3D9A920}</x14:id>
+          <x14:id>{8F743D4A-5EAB-4F46-923C-D59C270D1B41}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -13895,7 +11777,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4615A5DA-2097-473B-9859-61E7D1773C49}">
+          <x14:cfRule type="dataBar" id="{8F743D4A-5EAB-4F46-923C-D59C270D1B41}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -13903,40 +11785,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ED3DD033-F516-4634-8E4A-18EC1EC5BB8C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6569439E-4B71-43D7-93BD-85C759D72B1A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B0A603AF-B382-405F-BA99-62A0D3D9A920}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -13946,23 +11795,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>46</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -13978,7 +11827,7 @@
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -13987,7 +11836,7 @@
       <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -13995,14 +11844,12 @@
       <c r="A5" s="3">
         <v>46787</v>
       </c>
-      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="3">
         <v>46787</v>
       </c>
-      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -14260,81 +12107,24 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="A21" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E54F80C4-881D-4F11-A2EE-86CCE54B926A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9D2521E6-DEBF-4E8E-8677-5C0770DB5593}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B234A842-1A29-4F57-9084-8E96EF90D07A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{703370C2-3A8F-4855-9685-B1CDF54AACF8}</x14:id>
+          <x14:id>{005BBB93-A726-49D3-ABAB-8CC35914A2A0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14345,7 +12135,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E54F80C4-881D-4F11-A2EE-86CCE54B926A}">
+          <x14:cfRule type="dataBar" id="{005BBB93-A726-49D3-ABAB-8CC35914A2A0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -14353,40 +12143,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9D2521E6-DEBF-4E8E-8677-5C0770DB5593}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B234A842-1A29-4F57-9084-8E96EF90D07A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{703370C2-3A8F-4855-9685-B1CDF54AACF8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -14396,23 +12153,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>47</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -14807,64 +12564,27 @@
       </c>
       <c r="E26" s="5">
         <v>1.4516205796963499E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{252A4C7C-D382-4FB1-9FAF-6ACC2E8482DF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AF4CBE39-683E-417D-AF34-DEC7F8B617CF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CF19123D-0AC2-425E-8860-A54B4CE47A72}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0882E74B-3A39-48DD-9EFE-1DBD3522AC6A}</x14:id>
+          <x14:id>{FE6861E2-8A87-4E89-A1EF-3ED043D72C17}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14875,7 +12595,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{252A4C7C-D382-4FB1-9FAF-6ACC2E8482DF}">
+          <x14:cfRule type="dataBar" id="{FE6861E2-8A87-4E89-A1EF-3ED043D72C17}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -14883,40 +12603,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AF4CBE39-683E-417D-AF34-DEC7F8B617CF}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CF19123D-0AC2-425E-8860-A54B4CE47A72}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0882E74B-3A39-48DD-9EFE-1DBD3522AC6A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -14926,23 +12613,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>48</v>
+    <row r="1" spans="1:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -14958,7 +12645,7 @@
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -14967,7 +12654,7 @@
       <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -14975,14 +12662,12 @@
       <c r="A5" s="3">
         <v>285855</v>
       </c>
-      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="3">
         <v>285855</v>
       </c>
-      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -15223,85 +12908,24 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="A20" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2DFC002A-C9D9-4868-8520-0E5663A79285}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B25">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BC5CE80E-1248-486B-A26E-2692D29160A3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="B1:B1048576 E1:E1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6A9C4535-6100-4549-B08F-8E09BA5E3D91}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E25">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF4097B6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93A286E6-FAA6-4C9F-9503-898B2851C3E6}</x14:id>
+          <x14:id>{717770DF-AC40-42D0-A1C5-ED73B965B38B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -15312,7 +12936,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2DFC002A-C9D9-4868-8520-0E5663A79285}">
+          <x14:cfRule type="dataBar" id="{717770DF-AC40-42D0-A1C5-ED73B965B38B}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -15320,40 +12944,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BC5CE80E-1248-486B-A26E-2692D29160A3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6:B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6A9C4535-6100-4549-B08F-8E09BA5E3D91}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{93A286E6-FAA6-4C9F-9503-898B2851C3E6}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E6:E25</xm:sqref>
+          <xm:sqref>B1:B1048576 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
